--- a/artfynd/Stornäsholmen artfynd.xlsx
+++ b/artfynd/Stornäsholmen artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,48 +787,53 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>124741466</v>
+        <v>127062579</v>
       </c>
       <c r="B3" t="n">
-        <v>91245</v>
+        <v>4772</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stornäsholmen, Stornäsholmen, Ång</t>
+          <t>Stornäsholmen, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>705793</v>
+        <v>705690</v>
       </c>
       <c r="R3" t="n">
-        <v>7098171</v>
+        <v>7098154</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -852,22 +857,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -878,64 +883,88 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Stående död gran.</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies # Stående död gran.</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Anna Johansson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>124741383</v>
+        <v>127062583</v>
       </c>
       <c r="B4" t="n">
-        <v>91541</v>
+        <v>95218</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>2387</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Källpraktmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudobryum cinclidioides</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Huebener) T.J.Kop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stornäsholmen, Stornäsholmen, Ång</t>
+          <t>Stornäsholmen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>705755</v>
+        <v>705431</v>
       </c>
       <c r="R4" t="n">
-        <v>7098171</v>
+        <v>7098017</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -959,22 +988,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -983,28 +1012,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Anna Johansson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>124744131</v>
+        <v>127062561</v>
       </c>
       <c r="B5" t="n">
-        <v>103803</v>
+        <v>105381</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,37 +1042,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>221725</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nabben, Nabben, Ång</t>
+          <t>Stornäsholmen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>705930</v>
+        <v>705563</v>
       </c>
       <c r="R5" t="n">
-        <v>7097926</v>
+        <v>7097922</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1066,22 +1096,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1096,60 +1126,60 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Anna Johansson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124741575</v>
+        <v>124741466</v>
       </c>
       <c r="B6" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Stornäset, Stornäset, Ång</t>
+          <t>Stornäsholmen, Stornäsholmen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>705833</v>
+        <v>705793</v>
       </c>
       <c r="R6" t="n">
-        <v>7098254</v>
+        <v>7098171</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1178,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1212,6 +1242,1420 @@
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>127062574</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>705932</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7097991</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>127062577</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>705784</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7098194</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Granlåga med rynkskinn.</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga med rynkskinn.</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>127062581</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58488</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>208245</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bufo bufo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>705493</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7098108</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>127062569</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5196</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>705923</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7097933</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Klen barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies # Klen barklös granlåga.</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>127062571</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91245</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>705914</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7097951</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>127062578</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>705784</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7098194</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Granlåga med ullticka.</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga med ullticka.</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>127062572</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91210</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>705914</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7097951</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>124741383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>91541</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>658</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>705755</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7098171</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Anna Johansson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>127062582</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80119</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>705428</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7098018</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>124744131</v>
+      </c>
+      <c r="B16" t="n">
+        <v>103803</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Nabben, Nabben, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>705930</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7097926</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Anna Johansson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>124741575</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91699</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Stornäset, Stornäset, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>705833</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7098254</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Anna Johansson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Anna Johansson, Lina Albertsen, André Bakas Carlsten</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>127062565</v>
+      </c>
+      <c r="B18" t="n">
+        <v>103803</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Stornäsholmen, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>705913</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7097912</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Klas Magnusson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
